--- a/resources/dataAvianca.xlsx
+++ b/resources/dataAvianca.xlsx
@@ -189,7 +189,7 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -477,7 +477,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>

--- a/resources/dataAvianca.xlsx
+++ b/resources/dataAvianca.xlsx
@@ -477,7 +477,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
